--- a/code/results/SP/B/signal_reconstruction/execution_times.xlsx
+++ b/code/results/SP/B/signal_reconstruction/execution_times.xlsx
@@ -406,16 +406,16 @@
         <v>111478000000</v>
       </c>
       <c r="C2" t="n">
-        <v>117062341.0292683</v>
+        <v>117938206.5794621</v>
       </c>
       <c r="D2" t="n">
-        <v>2.096797781466244</v>
+        <v>2.159942396452617</v>
       </c>
       <c r="E2" t="n">
-        <v>45.41668328706831</v>
+        <v>43.76152824019935</v>
       </c>
       <c r="F2" t="n">
-        <v>45.41668328706831</v>
+        <v>43.76152824019935</v>
       </c>
     </row>
     <row r="3">
@@ -426,16 +426,16 @@
         <v>111478000000</v>
       </c>
       <c r="C3" t="n">
-        <v>117979078.3643032</v>
+        <v>117958757.8235294</v>
       </c>
       <c r="D3" t="n">
-        <v>2.163753336246879</v>
+        <v>2.157799778302009</v>
       </c>
       <c r="E3" t="n">
-        <v>43.66931894407701</v>
+        <v>43.79734999732742</v>
       </c>
       <c r="F3" t="n">
-        <v>89.08600223114532</v>
+        <v>87.55887823752678</v>
       </c>
     </row>
     <row r="4">
@@ -446,16 +446,16 @@
         <v>107544000000</v>
       </c>
       <c r="C4" t="n">
-        <v>118089880.9364303</v>
+        <v>118092940.8058968</v>
       </c>
       <c r="D4" t="n">
-        <v>1.897239345956234</v>
+        <v>1.88948966312718</v>
       </c>
       <c r="E4" t="n">
-        <v>48.00112081773364</v>
+        <v>48.19674707201454</v>
       </c>
       <c r="F4" t="n">
-        <v>137.087123048879</v>
+        <v>135.7556253095413</v>
       </c>
     </row>
     <row r="5">
@@ -466,16 +466,16 @@
         <v>107544000000</v>
       </c>
       <c r="C5" t="n">
-        <v>118090641.5330073</v>
+        <v>118060801.2279412</v>
       </c>
       <c r="D5" t="n">
-        <v>1.906567420760349</v>
+        <v>1.887548074646467</v>
       </c>
       <c r="E5" t="n">
-        <v>47.76596280511409</v>
+        <v>48.25945773964796</v>
       </c>
       <c r="F5" t="n">
-        <v>184.853085853993</v>
+        <v>184.0150830491893</v>
       </c>
     </row>
     <row r="6">
@@ -486,16 +486,16 @@
         <v>122443000000</v>
       </c>
       <c r="C6" t="n">
-        <v>118096400.7756098</v>
+        <v>117903326.207824</v>
       </c>
       <c r="D6" t="n">
-        <v>1.879515898345344</v>
+        <v>1.857274580886208</v>
       </c>
       <c r="E6" t="n">
-        <v>55.16343432270735</v>
+        <v>55.9154455193835</v>
       </c>
       <c r="F6" t="n">
-        <v>240.0165201767004</v>
+        <v>239.9305285685728</v>
       </c>
     </row>
     <row r="7">
@@ -506,16 +506,16 @@
         <v>122443000000</v>
       </c>
       <c r="C7" t="n">
-        <v>118084069.4093137</v>
+        <v>118034173.75</v>
       </c>
       <c r="D7" t="n">
-        <v>1.857907464695257</v>
+        <v>1.856258684225538</v>
       </c>
       <c r="E7" t="n">
-        <v>55.81084150468751</v>
+        <v>55.88402767694412</v>
       </c>
       <c r="F7" t="n">
-        <v>295.8273616813879</v>
+        <v>295.8145562455169</v>
       </c>
     </row>
     <row r="8">
@@ -526,16 +526,16 @@
         <v>98866377370</v>
       </c>
       <c r="C8" t="n">
-        <v>117883577.8533007</v>
+        <v>117934970.8921569</v>
       </c>
       <c r="D8" t="n">
-        <v>2.111685658381307</v>
+        <v>2.132865421296164</v>
       </c>
       <c r="E8" t="n">
-        <v>39.71604940196521</v>
+        <v>39.30452603754888</v>
       </c>
       <c r="F8" t="n">
-        <v>335.5434110833531</v>
+        <v>335.1190822830658</v>
       </c>
     </row>
     <row r="9">
@@ -546,16 +546,16 @@
         <v>94519776767</v>
       </c>
       <c r="C9" t="n">
-        <v>117935840.7243902</v>
+        <v>117980510.4621027</v>
       </c>
       <c r="D9" t="n">
-        <v>1.850179096625486</v>
+        <v>1.858671016647466</v>
       </c>
       <c r="E9" t="n">
-        <v>43.31747265954016</v>
+        <v>43.10323732063106</v>
       </c>
       <c r="F9" t="n">
-        <v>378.8608837428933</v>
+        <v>378.2223196036969</v>
       </c>
     </row>
     <row r="10">
@@ -566,16 +566,16 @@
         <v>96173861466</v>
       </c>
       <c r="C10" t="n">
-        <v>118067655.9682152</v>
+        <v>117988623.2843137</v>
       </c>
       <c r="D10" t="n">
-        <v>1.848276046033771</v>
+        <v>1.821282133314187</v>
       </c>
       <c r="E10" t="n">
-        <v>44.07164666695198</v>
+        <v>44.75480742817403</v>
       </c>
       <c r="F10" t="n">
-        <v>422.9325304098453</v>
+        <v>422.9771270318709</v>
       </c>
     </row>
   </sheetData>
